--- a/Documents/FrequencyInformation.xlsx
+++ b/Documents/FrequencyInformation.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECE_Projects\Music_Visualizer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81A7121-CCCD-4D82-BD53-4A794556BC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40A323-37AF-45FC-A981-B5AE4B616920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55AB93AF-FACF-4D5D-89B2-985490B15D04}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{55AB93AF-FACF-4D5D-89B2-985490B15D04}"/>
   </bookViews>
   <sheets>
     <sheet name="A to dB" sheetId="1" r:id="rId1"/>
-    <sheet name="Frequency Ranges" sheetId="2" r:id="rId2"/>
+    <sheet name="Volume Ranges" sheetId="3" r:id="rId2"/>
+    <sheet name="Percentage Division" sheetId="4" r:id="rId3"/>
+    <sheet name="Frequency Ranges" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>A</t>
   </si>
@@ -73,13 +75,42 @@
   <si>
     <t>High</t>
   </si>
+  <si>
+    <t>Player Volume</t>
+  </si>
+  <si>
+    <t>Peak-Peak Voltage (Speaker Volume = 100)</t>
+  </si>
+  <si>
+    <t>Peak-Peak Voltage (Speaker Volume = 42)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>10*SQRT(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,8 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +159,3040 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Volume Ranges'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-044C-41A6-821E-B744E3DD402F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1687300719"/>
+        <c:axId val="1687304047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1687300719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687304047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1687304047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687300719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Volume Ranges'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0E4-47D6-A776-D9AB21EC0FBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1866741839"/>
+        <c:axId val="1866743087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1866741839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866743087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1866743087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866741839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Percentage Division'!$A$1:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Percentage Division'!$B$1:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2360679774997898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1622776601683795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.872983346207417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4721359549995796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4772255750516612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9160797830996161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.324555320336759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7082039324993694</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0710678118654755</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.416198487095663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.745966692414834</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0622577482985491</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3666002653407556</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6602540378443873</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9442719099991592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2195444572928871</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4868329805051381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7467943448089631</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C04E-41B8-B44B-272AEFDA6AA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Percentage Division'!$A$1:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Percentage Division'!$J$1:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69897000433601886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6020599913279623</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7403626894942439</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7781512503836436</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8129133566428555</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9030899869919435</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9294189257142926</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.954242509439325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9777236052888478</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C04E-41B8-B44B-272AEFDA6AA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1870412159"/>
+        <c:axId val="1870401759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1870412159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870401759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1870401759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870412159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B90C554-67C5-4F4E-A933-63DBA2462EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2933647C-91EF-4660-BEE9-DB0349115165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EA8484-B178-4A7D-9CF7-29B5884DCAD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B97DD4A-A0AA-45B9-9CF9-45A62F2B3A3A}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -636,6 +3703,891 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D34943-BE01-4DDB-AD8D-7106FCEA46C4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.246</v>
+      </c>
+      <c r="C9">
+        <v>1.1439999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.315</v>
+      </c>
+      <c r="C11">
+        <v>1.4570000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C12">
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD4FFE3-B57B-4704-8DE9-170C600157CD}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>SQRT(A1)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1*10</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>SQRT(E1)</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>F1*10</f>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B21" si="0">SQRT(A2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C21" si="1">B2*10</f>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F11" si="2">SQRT(E2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G11" si="3">F2*10</f>
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J21" si="4">LOG10(I2)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="K2">
+        <f>J2*50</f>
+        <v>34.948500216800944</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>31.622776601683796</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="3"/>
+        <v>14.142135623730951</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K21" si="5">J3*50</f>
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>38.729833462074168</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>17.320508075688771</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>58.804562952784067</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>44.721359549995796</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>65.051499783199063</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>69.897000433601889</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>54.772255750516614</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>24.494897427831781</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>73.856062735983116</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9160797830996161</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>59.16079783099616</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>26.457513110645905</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>77.203402217513784</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>63.245553203367592</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>28.284271247461902</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>80.102999566398111</v>
+      </c>
+      <c r="M9">
+        <v>64</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>67.082039324993701</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>82.660625688767183</v>
+      </c>
+      <c r="M10">
+        <v>81</v>
+      </c>
+      <c r="N10">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>70.710678118654755</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>31.622776601683796</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>84.948500216800937</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7.416198487095663</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>74.16198487095663</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>1.7403626894942439</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>87.018134474712198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>7.745966692414834</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>77.459666924148337</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>1.7781512503836436</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>88.907562519182179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>80.622577482985491</v>
+      </c>
+      <c r="I14">
+        <v>65</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>1.8129133566428555</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>90.645667832142777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>8.3666002653407556</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>83.66600265340756</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>1.8450980400142569</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>92.254902000712846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>8.6602540378443873</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>86.602540378443877</v>
+      </c>
+      <c r="I16">
+        <v>75</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>1.8750612633917001</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>93.753063169585005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>8.9442719099991592</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>89.442719099991592</v>
+      </c>
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>95.154499349597174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>92.195444572928864</v>
+      </c>
+      <c r="I18">
+        <v>85</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>1.9294189257142926</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>96.470946285714632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>94.868329805051388</v>
+      </c>
+      <c r="I19">
+        <v>90</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>1.954242509439325</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>97.712125471966246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>9.7467943448089631</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>97.467943448089628</v>
+      </c>
+      <c r="I20">
+        <v>95</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>1.9777236052888478</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>98.886180264442388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B73D8A-3589-4BED-918E-064D9FEE9FAE}">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Documents/FrequencyInformation.xlsx
+++ b/Documents/FrequencyInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECE_Projects\Music_Visualizer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40A323-37AF-45FC-A981-B5AE4B616920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E64F1A-4B57-4BD4-B076-96BF9751D9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{55AB93AF-FACF-4D5D-89B2-985490B15D04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{55AB93AF-FACF-4D5D-89B2-985490B15D04}"/>
   </bookViews>
   <sheets>
     <sheet name="A to dB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -96,6 +96,12 @@
   <si>
     <t xml:space="preserve">git </t>
   </si>
+  <si>
+    <t>Voltage Amplitude (Speaker Volume = 42)</t>
+  </si>
+  <si>
+    <t>Voltage amplitdue (Speaker Volume = 100)</t>
+  </si>
 </sst>
 </file>
 
@@ -138,10 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3704,19 +3709,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D34943-BE01-4DDB-AD8D-7106FCEA46C4}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3726,8 +3733,14 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3737,8 +3750,16 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>B2/2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>C2/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3748,8 +3769,16 @@
       <c r="C3">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="0">B3/2</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="1">C3/2</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
@@ -3759,8 +3788,16 @@
       <c r="C4">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3770,8 +3807,16 @@
       <c r="C5">
         <v>0.46600000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -3781,8 +3826,16 @@
       <c r="C6">
         <v>0.61899999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -3792,8 +3845,16 @@
       <c r="C7">
         <v>0.76800000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
@@ -3803,8 +3864,16 @@
       <c r="C8">
         <v>0.98299999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.1045</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.49149999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
@@ -3814,8 +3883,16 @@
       <c r="C9">
         <v>1.1439999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.123</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>80</v>
       </c>
@@ -3825,8 +3902,16 @@
       <c r="C10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>90</v>
       </c>
@@ -3836,8 +3921,16 @@
       <c r="C11">
         <v>1.4570000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.1575</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.72850000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -3846,6 +3939,14 @@
       </c>
       <c r="C12">
         <v>1.6</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -3858,7 +3959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD4FFE3-B57B-4704-8DE9-170C600157CD}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -3995,14 +4096,14 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>3.872983346207417</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <f t="shared" si="1"/>
         <v>38.729833462074168</v>
       </c>
@@ -4171,14 +4272,14 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>35</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>5.9160797830996161</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>59.16079783099616</v>
       </c>
@@ -4389,14 +4490,14 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>65</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>8.0622577482985491</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>80.622577482985491</v>
       </c>
